--- a/FTSEKLCI Component Stocks.xlsx
+++ b/FTSEKLCI Component Stocks.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevins\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\assign2\UECM3763_assign2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -273,7 +273,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -281,22 +281,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,633 +598,633 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="E3" s="5" t="s">
+      <c r="A3" s="2"/>
+      <c r="E3" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <v>1295</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="6">
         <v>11.6</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
         <v>15.2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="6">
         <v>73.290000000000006</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>1155</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="6">
         <v>9.32</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
         <v>12.39</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="6">
         <v>87.75</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>5347</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="6">
         <v>9.2799999999999994</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6">
         <v>9.31</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="6">
         <v>69.760000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>1023</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="6">
         <v>5.76</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6">
         <v>17.510000000000002</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="6">
         <v>46.52</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="6">
         <v>6888</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="6">
         <v>5.62</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="6">
         <v>24.31</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="6">
         <v>55.43</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="6">
         <v>4197</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="6">
         <v>5.51</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="6">
         <v>20.8</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="6">
         <v>52.09</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="6">
         <v>6947</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="6">
         <v>4.16</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="6">
         <v>20.81</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="6">
         <v>42.06</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="6">
         <v>3182</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="6">
         <v>3.68</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="6">
         <v>16.5</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="6">
         <v>30.86</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="6">
         <v>5183</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="6">
         <v>3.55</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="6">
         <v>22.07</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="6">
         <v>51.2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="6">
         <v>6012</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="6">
         <v>3.45</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="6">
         <v>29.73</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="6">
         <v>48.88</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="6">
         <v>6033</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="6">
         <v>3.4</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="6">
         <v>22.51</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="6">
         <v>42.23</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="6">
         <v>5225</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="6">
         <v>3.28</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="6">
         <v>63.12</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="6">
         <v>48.25</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="6">
         <v>1961</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="6">
         <v>2.99</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="6">
         <v>66.31</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="6">
         <v>27.24</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="6">
         <v>4863</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="6">
         <v>2.96</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="6">
         <v>32.79</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="6">
         <v>24.88</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="6">
         <v>4715</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="6">
         <v>2.5</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="6">
         <v>20.14</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="6">
         <v>23.99</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="6">
         <v>3816</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="6">
         <v>2.4500000000000002</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="6">
         <v>16.28</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="6">
         <v>35.89</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="6">
         <v>1015</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="6">
         <v>2.38</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="6">
         <v>9.2200000000000006</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="6">
         <v>17.670000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="6">
         <v>2445</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="6">
         <v>2.2799999999999998</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="6">
         <v>29.83</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="6">
         <v>24.49</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="6">
         <v>5218</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="6">
         <v>1.98</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="6">
         <v>11.97</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="6">
         <v>14.15</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="6">
         <v>4065</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="6">
         <v>1.8</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="6">
         <v>17.739999999999998</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="6">
         <v>17.829999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="6">
         <v>4162</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="6">
         <v>1.7</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="6">
         <v>20.67</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="6">
         <v>19.02</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="6">
         <v>5819</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="6">
         <v>1.67</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="6">
         <v>11.01</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="6">
         <v>23.66</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="6">
         <v>4677</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="6">
         <v>1.63</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="6">
         <v>14.81</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="6">
         <v>16.670000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="6">
         <v>4588</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="6">
         <v>1.37</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="6">
         <v>20.399999999999999</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="6">
         <v>11.87</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="6">
         <v>6399</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="6">
         <v>1.22</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="6">
         <v>28.41</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="6">
         <v>15.81</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="6">
         <v>5681</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="6">
         <v>1.21</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="6">
         <v>37.119999999999997</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="6">
         <v>20.5</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="6">
         <v>1066</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="6">
         <v>1.06</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="6">
         <v>9.4700000000000006</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="6">
         <v>19.579999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="6">
         <v>5246</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="6">
         <v>0.93</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="6">
         <v>27.44</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="6">
         <v>14.36</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="6">
         <v>1082</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="6">
         <v>0.64</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="6">
         <v>10.210000000000001</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="6">
         <v>16.62</v>
       </c>
       <c r="G33" t="s">
@@ -1214,22 +1232,22 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="6">
         <v>0.63</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="6">
         <v>26.42</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="6">
         <v>12.64</v>
       </c>
     </row>
